--- a/filenames.xlsx
+++ b/filenames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherryleheu/Codes/NIDIS-Codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherryleheu/Codes/NIDIS-Codes/H-RIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303BA757-A532-064D-BDCE-48FF06185EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759BF596-3C2B-724F-B916-86EE8DE36035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{C365272C-322A-404D-B650-E0A788653A61}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20180" xr2:uid="{C365272C-322A-404D-B650-E0A788653A61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
-  <si>
-    <t>RID FILES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>File Name</t>
   </si>
@@ -168,45 +165,27 @@
     <t>Python script name</t>
   </si>
   <si>
-    <t>ET Maps</t>
-  </si>
-  <si>
-    <t>NDVI Maps</t>
-  </si>
-  <si>
     <t>_rf.png</t>
   </si>
   <si>
     <t>RF Monthly island map</t>
   </si>
   <si>
-    <t>RF Maps</t>
-  </si>
-  <si>
     <t>_temp.png</t>
   </si>
   <si>
     <t>Temp monthly island map</t>
   </si>
   <si>
-    <t>Temp maps</t>
-  </si>
-  <si>
     <t>_rainfall.png</t>
   </si>
   <si>
     <t>Rainfall Outlook Graph</t>
   </si>
   <si>
-    <t>Rainfall Outlook</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>ET and NDVI Monthly</t>
-  </si>
-  <si>
     <t>ET Units, divide by 8 for per day</t>
   </si>
   <si>
@@ -225,9 +204,6 @@
     <t>Sometimes HCDP doesn't update on time</t>
   </si>
   <si>
-    <t>Temp Daily</t>
-  </si>
-  <si>
     <t>Temp Monthly</t>
   </si>
   <si>
@@ -249,14 +225,78 @@
     <t>ONI Gauge</t>
   </si>
   <si>
-    <t>Order</t>
+    <r>
+      <t>RID FILES (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>red = not added yet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ET_NDVI.py</t>
+  </si>
+  <si>
+    <t>temp_daily.py</t>
+  </si>
+  <si>
+    <t>maps.py</t>
+  </si>
+  <si>
+    <t>Beginning of every month, AFTER CSVs are created</t>
+  </si>
+  <si>
+    <t>rainfall_outlook.py</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>528.py</t>
+  </si>
+  <si>
+    <t>Script Name</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forage growth table </t>
+  </si>
+  <si>
+    <t>ONI_gauge.py</t>
+  </si>
+  <si>
+    <t>Updates the ONI gauge</t>
+  </si>
+  <si>
+    <t>new_coordinates.py</t>
+  </si>
+  <si>
+    <t>Creates a new ranch page. Requires lat/lon for inputs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +311,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -299,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -310,6 +363,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3772C4C9-058D-AF4F-9E64-13D1101D2778}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -652,57 +718,57 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>36892</v>
@@ -710,15 +776,15 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>36557</v>
@@ -728,244 +794,273 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
         <v>7306</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="6"/>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <v>32874</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>63</v>
+      <c r="D15" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="6"/>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="6"/>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="E3:E8"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D21:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -983,7 +1078,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
